--- a/20251023_fncy_holders.xlsx
+++ b/20251023_fncy_holders.xlsx
@@ -26,7 +26,7 @@
     <t>1. Snapshot Time</t>
   </si>
   <si>
-    <t>October 23, 2025, 00:00 UTC</t>
+    <t>October 22, 2025, 15:00 UTC</t>
   </si>
   <si>
     <t>2. Snapshot Block Number</t>

--- a/20251023_fncy_holders.xlsx
+++ b/20251023_fncy_holders.xlsx
@@ -15330,8 +15330,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000000000000000000_ "/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000000000000_ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -15390,7 +15391,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -15406,7 +15407,7 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -15416,7 +15417,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -15676,7 +15680,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="5">
-        <v>1.16082518500002E9</v>
+        <v>1.16082518474802E9</v>
       </c>
     </row>
     <row r="6" ht="16.5" customHeight="1">
@@ -15769,7 +15773,7 @@
         <f t="shared" si="1"/>
         <v>10540666.67</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" ht="16.5" customHeight="1">
       <c r="B15" s="8" t="s">
